--- a/biology/Botanique/Bulbostylis_densa/Bulbostylis_densa.xlsx
+++ b/biology/Botanique/Bulbostylis_densa/Bulbostylis_densa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bulbostylis densa (Wall.) Hand.-Mazz. est une espèce de plantes tropicales du genre Bulbostylis de la famille des Cyperaceae[4], présente en Asie et en Afrique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulbostylis densa (Wall.) Hand.-Mazz. est une espèce de plantes tropicales du genre Bulbostylis de la famille des Cyperaceae, présente en Asie et en Afrique.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bulbostylis densa pousse principalement dans les zones humides, mais également dans les zones sablonneuses sèches, aussi bien sur terre que dans les eaux fraîches. On la retrouve dans plusieurs pays, notamment : Tchad, Éthiopie, Guinée, Inde, Sri Lanka, Soudan, Taiwan, Tanzanie, Nigeria, Thaïlande, Viêt Nam, Malaisie, Myanmar, Sénégal[5].
-Pour l'UICN, la situation de cette espèce n'est pas préoccupante[5].
-Cependant la sous-espèce Bulbostylis densa var. cameroonensis S.S. Hooper, endémique du Cameroun, y est considérée comme menacée[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulbostylis densa pousse principalement dans les zones humides, mais également dans les zones sablonneuses sèches, aussi bien sur terre que dans les eaux fraîches. On la retrouve dans plusieurs pays, notamment : Tchad, Éthiopie, Guinée, Inde, Sri Lanka, Soudan, Taiwan, Tanzanie, Nigeria, Thaïlande, Viêt Nam, Malaisie, Myanmar, Sénégal.
+Pour l'UICN, la situation de cette espèce n'est pas préoccupante.
+Cependant la sous-espèce Bulbostylis densa var. cameroonensis S.S. Hooper, endémique du Cameroun, y est considérée comme menacée. 
 </t>
         </is>
       </c>
@@ -544,17 +558,19 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 octobre 2017)[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 octobre 2017) :
 sous-espèce Bulbostylis densa subsp. afromontana
 sous-espèce Bulbostylis densa subsp. densa
 variété Bulbostylis densa var. cameroonensis
 variété Bulbostylis densa var. capitata
-Selon The Plant List            (17 octobre 2017)[1] :
+Selon The Plant List            (17 octobre 2017) :
 sous-espèce Bulbostylis densa subsp. afromontana (Lye) R.W.Haines
 variété Bulbostylis densa var. capitata (Miq.) Ohwi
-Selon Tropicos                                           (17 octobre 2017)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Bulbostylis densa subsp. afromontana (Lye) R.W. Haines
 sous-espèce Bulbostylis densa subsp. densa
 variété Bulbostylis densa var. cameroonensis S.S. Hooper
